--- a/_doc/data_structure_gcm.xlsx
+++ b/_doc/data_structure_gcm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GCM\_doc\Concept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GCM\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>event_id</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>char(11)</t>
+  </si>
+  <si>
+    <t>is_patient</t>
   </si>
 </sst>
 </file>
@@ -591,26 +594,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -626,44 +630,47 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -679,53 +686,56 @@
       <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -744,32 +754,32 @@
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -788,38 +798,38 @@
       <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>2</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -830,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -841,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="H16" t="s">
         <v>27</v>
       </c>

--- a/_doc/data_structure_gcm.xlsx
+++ b/_doc/data_structure_gcm.xlsx
@@ -83,9 +83,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>civ</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>is_patient</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -643,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>18</v>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>4</v>
@@ -672,58 +672,58 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="S3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -749,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
@@ -767,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>3</v>
@@ -781,52 +781,52 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -837,23 +837,23 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
